--- a/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
+++ b/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="110">
   <si>
     <t>土地坐落</t>
   </si>
@@ -210,7 +210,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>力宇創業投資股份有限公 司</t>
+  </si>
+  <si>
+    <t>2012-03-26</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1389,13 +1401,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1414,13 +1426,22 @@
       <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -1436,6 +1457,15 @@
       </c>
       <c r="G2" s="2">
         <v>2519930</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -1453,22 +1483,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -1479,13 +1509,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>5669.54</v>
@@ -1505,13 +1535,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2">
         <v>44345.898</v>
@@ -1541,13 +1571,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1555,10 +1585,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>55</v>
@@ -1569,10 +1599,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>55</v>
@@ -1583,10 +1613,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1610,19 +1640,19 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1630,22 +1660,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>11050719</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1653,22 +1683,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>7197883</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1686,22 +1716,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1712,19 +1742,19 @@
         <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1735,19 +1765,19 @@
         <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1758,19 +1788,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1781,19 +1811,19 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2">
         <v>5000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
+++ b/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
   <si>
     <t>土地坐落</t>
   </si>
@@ -210,6 +210,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -219,7 +222,10 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>力宇創業投資股份有限公 司</t>
+    <t>力宇創業投資股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-03-26</t>
@@ -1401,13 +1407,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1435,13 +1441,16 @@
       <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -1459,12 +1468,15 @@
         <v>2519930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>678</v>
       </c>
     </row>
@@ -1483,22 +1495,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -1509,13 +1521,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>5669.54</v>
@@ -1535,13 +1547,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>44345.898</v>
@@ -1571,13 +1583,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1585,10 +1597,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>55</v>
@@ -1599,10 +1611,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>55</v>
@@ -1613,10 +1625,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1640,19 +1652,19 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1660,22 +1672,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>11050719</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1683,22 +1695,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>7197883</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1716,22 +1728,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1742,19 +1754,19 @@
         <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1765,19 +1777,19 @@
         <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1788,19 +1800,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1811,19 +1823,19 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2">
         <v>5000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
+++ b/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="117">
   <si>
     <t>土地坐落</t>
   </si>
@@ -213,6 +213,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -222,13 +225,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>力宇創業投資股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-03-26</t>
+  </si>
+  <si>
+    <t>tmp71a01</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1407,13 +1422,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1444,13 +1459,22 @@
       <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -1468,16 +1492,25 @@
         <v>2519930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>678</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1495,22 +1528,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -1521,13 +1554,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>5669.54</v>
@@ -1547,13 +1580,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>44345.898</v>
@@ -1583,13 +1616,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1597,10 +1630,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>55</v>
@@ -1611,10 +1644,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>55</v>
@@ -1625,10 +1658,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1652,19 +1685,19 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1672,22 +1705,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>11050719</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1695,22 +1728,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>7197883</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1728,22 +1761,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1754,19 +1787,19 @@
         <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2">
         <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1777,19 +1810,19 @@
         <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1800,19 +1833,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1823,19 +1856,19 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2">
         <v>5000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
+++ b/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
@@ -22,9 +22,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="117">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="122">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市八里區小八里分段楓櫃斗湖小段02690003地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區敦化段五小段00290010地號</t>
+  </si>
+  <si>
+    <t>新北市八里區小八里分段楓櫃斗湖小段02830001地號</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>374分之24</t>
+  </si>
+  <si>
+    <t>田正超</t>
+  </si>
+  <si>
+    <t>101年01月11曰</t>
+  </si>
+  <si>
+    <t>72年06月11曰</t>
+  </si>
+  <si>
+    <t>101年03月08日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-26</t>
+  </si>
+  <si>
+    <t>潘維剛</t>
+  </si>
+  <si>
+    <t>tmp71a01</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -45,46 +138,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市八里區小八里分段楓櫃 斗湖小段0269-0003地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段五小段 0029-0010 地號</t>
-  </si>
-  <si>
-    <t>新北市八里區小八里分段楓櫃 斗湖小段0283-0001地號</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>374分之24</t>
-  </si>
-  <si>
-    <t>田正超</t>
-  </si>
-  <si>
-    <t>101 年 01 月11曰</t>
-  </si>
-  <si>
-    <t>72年06月 11曰</t>
-  </si>
-  <si>
-    <t>101 年 03 月08日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段五小段 02392-000 建號</t>
+    <t>臺北市松山區敦化段五小段02392000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -102,7 +156,7 @@
     <t>LEXUS</t>
   </si>
   <si>
-    <t>97年07月 07日</t>
+    <t>97年07月07日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -120,10 +174,10 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>立法院郵局（第2 5支局）</t>
-  </si>
-  <si>
-    <t>台北長安郵局（第4 6支 局）</t>
+    <t>立法院郵局（第25支局）</t>
+  </si>
+  <si>
+    <t>台北長安郵局（第46支局）</t>
   </si>
   <si>
     <t>永豐商業銀行板新分行</t>
@@ -132,19 +186,19 @@
     <t>永豐商業銀行西松分行</t>
   </si>
   <si>
-    <t>日盛國際商業銀行松山分 行</t>
+    <t>日盛國際商業銀行松山分行</t>
   </si>
   <si>
     <t>彰化商業銀行總行</t>
   </si>
   <si>
-    <t>中國信託商業銀行城中分 行</t>
+    <t>中國信託商業銀行城中分行</t>
   </si>
   <si>
     <t>三信商業銀行台中分行</t>
   </si>
   <si>
-    <t>台新國際商業銀行敦北分 行</t>
+    <t>台新國際商業銀行敦北分行</t>
   </si>
   <si>
     <t>花旗（台灣）銀行營業部</t>
@@ -153,7 +207,7 @@
     <t>台新國際商業銀行營業部</t>
   </si>
   <si>
-    <t>台北富邦商業銀行敦南分 行</t>
+    <t>台北富邦商業銀行敦南分行</t>
   </si>
   <si>
     <t>玉山商業銀行民生分行</t>
@@ -162,7 +216,7 @@
     <t>永豐商業銀行松江分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行南京東 路分行</t>
+    <t>國泰世華商業銀行南京東路分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -189,15 +243,6 @@
     <t>潘维剛</t>
   </si>
   <si>
-    <t>潘維剛</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -210,42 +255,12 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>力宇創業投資股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-26</t>
-  </si>
-  <si>
-    <t>tmp71a01</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -264,7 +279,7 @@
     <t>貝萊德世界礦業</t>
   </si>
   <si>
-    <t>聯博全球高收益 債券AT股</t>
+    <t>聯博全球高收益債券AT股</t>
   </si>
   <si>
     <t>永豐商業銀行</t>
@@ -285,10 +300,10 @@
     <t>中國人壽</t>
   </si>
   <si>
-    <t>吉祥變額萬能終身壽險(A 型）</t>
-  </si>
-  <si>
-    <t>限期繳費單利增值終身壽險 已型</t>
+    <t>吉祥變額萬能終身壽險(A型）</t>
+  </si>
+  <si>
+    <t>限期繳費單利增值終身壽險已型</t>
   </si>
   <si>
     <t>債務人</t>
@@ -309,16 +324,16 @@
     <t>一般借款</t>
   </si>
   <si>
-    <t>永豐銀行西松分行 臺北市松山區東興路</t>
-  </si>
-  <si>
-    <t>永豐銀行板新分行 新北市板橋區民權路</t>
-  </si>
-  <si>
-    <t>95年10月 27日</t>
-  </si>
-  <si>
-    <t>96年07月 25 F1</t>
+    <t>永豐銀行西松分行臺北市松山區東興路</t>
+  </si>
+  <si>
+    <t>永豐銀行板新分行新北市板橋區民權路</t>
+  </si>
+  <si>
+    <t>95年10月27日</t>
+  </si>
+  <si>
+    <t>96年07月25F1</t>
   </si>
   <si>
     <t>房貸</t>
@@ -339,7 +354,7 @@
     <t>女人網股份有限公司</t>
   </si>
   <si>
-    <t>傳智國際文化事業股份有限 公司</t>
+    <t>傳智國際文化事業股份有限公司</t>
   </si>
   <si>
     <t>春田國際有限公司</t>
@@ -348,28 +363,28 @@
     <t>中餘國際股份有限公司</t>
   </si>
   <si>
-    <t>臺北市杭州南路1段63號5 樓之1</t>
-  </si>
-  <si>
-    <t>臺北市羅斯福路2段116號 3樓</t>
-  </si>
-  <si>
-    <t>臺北市民權東路3段106巷 36號7樓</t>
-  </si>
-  <si>
-    <t>新北市寶僑路235巷6弄5 號5樓</t>
-  </si>
-  <si>
-    <t>98年08月 10日</t>
-  </si>
-  <si>
-    <t>89年08月 11曰</t>
-  </si>
-  <si>
-    <t>92年03月 20日</t>
-  </si>
-  <si>
-    <t>92年03月 20 H</t>
+    <t>臺北市杭州南路1段63號5樓之1</t>
+  </si>
+  <si>
+    <t>臺北市羅斯福路2段116號3樓</t>
+  </si>
+  <si>
+    <t>臺北市民權東路3段106巷36號7樓</t>
+  </si>
+  <si>
+    <t>新北市寶僑路235巷6弄5號5樓</t>
+  </si>
+  <si>
+    <t>98年08月10日</t>
+  </si>
+  <si>
+    <t>89年08月11曰</t>
+  </si>
+  <si>
+    <t>92年03月20日</t>
+  </si>
+  <si>
+    <t>92年03月20H</t>
   </si>
   <si>
     <t>投資</t>
@@ -731,13 +746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,83 +774,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>6915</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2">
         <v>7260750</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>678</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>374</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>678</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>4825</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2">
         <v>5066250</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>678</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -853,25 +952,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -879,25 +978,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>104.3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -915,22 +1014,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -938,19 +1037,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>4608</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>2100000</v>
@@ -971,22 +1070,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -994,16 +1093,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1015,16 +1114,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1036,16 +1135,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1057,16 +1156,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1078,16 +1177,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1099,16 +1198,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1120,16 +1219,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1141,16 +1240,16 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1162,16 +1261,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1183,16 +1282,16 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1204,16 +1303,16 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1225,16 +1324,16 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2">
         <v>293.41</v>
@@ -1248,16 +1347,16 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1269,16 +1368,16 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2">
         <v>12.41</v>
@@ -1292,16 +1391,16 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1313,16 +1412,16 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1334,16 +1433,16 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1355,16 +1454,16 @@
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2">
         <v>244822.95</v>
@@ -1378,16 +1477,16 @@
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1399,16 +1498,16 @@
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1430,43 +1529,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1474,10 +1573,10 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>251993</v>
@@ -1486,28 +1585,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2">
         <v>2519930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2">
         <v>678</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>71</v>
@@ -1528,25 +1627,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1554,13 +1653,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>5669.54</v>
@@ -1569,7 +1668,7 @@
         <v>65.47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2">
         <v>10975934.06</v>
@@ -1580,13 +1679,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>44345.898</v>
@@ -1595,7 +1694,7 @@
         <v>4.51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2">
         <v>5914000</v>
@@ -1616,13 +1715,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1630,13 +1729,13 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1644,13 +1743,13 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1658,13 +1757,13 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1682,22 +1781,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1705,22 +1804,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>11050719</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1728,22 +1827,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>7197883</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1761,22 +1860,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1784,22 +1883,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1807,22 +1906,22 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1830,22 +1929,22 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1853,22 +1952,22 @@
         <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2">
         <v>5000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
+++ b/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -72,21 +72,27 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市八里區小八里分段楓櫃斗湖小段02690003地號</t>
+  </si>
+  <si>
     <t>臺北市松山區敦化段五小段00290010地號</t>
   </si>
   <si>
     <t>新北市八里區小八里分段楓櫃斗湖小段02830001地號</t>
   </si>
   <si>
+    <t>2分之1</t>
+  </si>
+  <si>
     <t>374分之24</t>
   </si>
   <si>
-    <t>2分之1</t>
-  </si>
-  <si>
     <t>田正超</t>
   </si>
   <si>
+    <t>101年01月11曰</t>
+  </si>
+  <si>
     <t>72年06月11曰</t>
   </si>
   <si>
@@ -205,6 +211,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>力宇創業投資股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>貝萊德世界礦業</t>
@@ -641,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,107 +711,160 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>374</v>
+        <v>6915</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H2" s="2">
+        <v>7260750</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2">
         <v>678</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0641711229946524</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="2">
-        <v>24</v>
+        <v>3457.5</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>4825</v>
+        <v>374</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5066250</v>
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2">
         <v>678</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0641711229946524</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4825</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5066250</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2">
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>678</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P4" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q4" s="2">
         <v>2412.5</v>
       </c>
     </row>
@@ -810,33 +875,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2">
         <v>104.3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>678</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>104.3</v>
       </c>
     </row>
   </sheetData>
@@ -845,643 +990,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1">
-        <v>4608</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2100000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>1054022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>494765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>1372036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>49</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>2374298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>50</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>2314717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>679609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>5282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>1266328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>1147.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>55</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>40706</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="2">
-        <v>293.41</v>
-      </c>
-      <c r="G12" s="2">
-        <v>8676.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>57</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>101048.04</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2">
-        <v>12.41</v>
-      </c>
-      <c r="G14" s="2">
-        <v>366.96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>59</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>1151980.57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>60</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>5517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>61</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>1178566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>62</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="2">
-        <v>244822.95</v>
-      </c>
-      <c r="G18" s="2">
-        <v>7239414.63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>63</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>64</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>40706</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5669.54</v>
-      </c>
-      <c r="F1" s="1">
-        <v>65.47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1">
-        <v>10975934.06</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44345.898</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4.51</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5914000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>96</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>97</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1491,45 +999,833 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4608</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4608</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>1054022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>1054022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>494765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>1372036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>2374298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>2314717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>679609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>1266328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>1147.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>40706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2">
+        <v>293.41</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8676.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>101048.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12.41</v>
+      </c>
+      <c r="G15" s="2">
+        <v>366.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>1151980.57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>5517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>1178566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="2">
+        <v>244822.95</v>
+      </c>
+      <c r="G19" s="2">
+        <v>7239414.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>40706</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2">
+        <v>251993</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2519930</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>678</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5669.54</v>
+      </c>
+      <c r="F1" s="1">
+        <v>65.47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1">
+        <v>10975934.06</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5669.54</v>
+      </c>
+      <c r="F2" s="2">
+        <v>65.47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10975934.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44345.898</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5914000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E1" s="1">
         <v>11050719</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11050719</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>108</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="2">
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2">
         <v>7197883</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>71</v>
+      <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1835,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1547,91 +1843,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>900000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2">
+        <v>900000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>117</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
+++ b/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>全部</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>LEXUS</t>
@@ -991,38 +994,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1">
-        <v>4608</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>4608</v>
@@ -1031,13 +1055,34 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>2100000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>678</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1055,16 +1100,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1076,16 +1121,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1097,16 +1142,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1118,13 +1163,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1139,13 +1184,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1160,13 +1205,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1181,13 +1226,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1202,13 +1247,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1223,13 +1268,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1244,13 +1289,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1265,13 +1310,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1286,13 +1331,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
@@ -1307,13 +1352,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -1330,13 +1375,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -1351,13 +1396,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
@@ -1374,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
@@ -1395,13 +1440,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
@@ -1416,13 +1461,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -1437,13 +1482,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
@@ -1460,13 +1505,13 @@
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
@@ -1481,13 +1526,13 @@
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>31</v>
@@ -1518,13 +1563,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1556,7 +1601,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1568,13 +1613,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>2519930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1610,13 +1655,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1">
         <v>5669.54</v>
@@ -1625,7 +1670,7 @@
         <v>65.47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1">
         <v>10975934.06</v>
@@ -1636,13 +1681,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>5669.54</v>
@@ -1651,7 +1696,7 @@
         <v>65.47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2">
         <v>10975934.06</v>
@@ -1662,13 +1707,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E3" s="2">
         <v>44345.898</v>
@@ -1677,7 +1722,7 @@
         <v>4.51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2">
         <v>5914000</v>
@@ -1698,10 +1743,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1712,10 +1757,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -1726,10 +1771,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -1740,10 +1785,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -1764,22 +1809,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1">
         <v>11050719</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1787,22 +1832,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>11050719</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1810,22 +1855,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>7197883</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1846,19 +1891,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1">
         <v>900000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1869,19 +1914,19 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1892,19 +1937,19 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1915,19 +1960,19 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1938,19 +1983,19 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2">
         <v>5000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
+++ b/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -129,6 +129,9 @@
     <t>全部</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
   </si>
   <si>
     <t>97年07月07日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>立法院郵局（第25支局）</t>
@@ -960,7 +966,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>29</v>
@@ -1005,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1046,7 +1052,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>4608</v>
@@ -1055,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1064,7 +1070,7 @@
         <v>2100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1100,16 +1106,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1121,16 +1127,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1142,16 +1148,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1163,13 +1169,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1184,13 +1190,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1205,13 +1211,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1226,13 +1232,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1247,13 +1253,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1268,13 +1274,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1289,13 +1295,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1310,13 +1316,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1331,13 +1337,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
@@ -1352,13 +1358,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -1375,13 +1381,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -1396,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
@@ -1419,13 +1425,13 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
@@ -1440,13 +1446,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
@@ -1461,13 +1467,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -1482,13 +1488,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
@@ -1505,13 +1511,13 @@
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
@@ -1526,13 +1532,13 @@
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>31</v>
@@ -1563,13 +1569,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1601,7 +1607,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1613,13 +1619,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>2519930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1655,13 +1661,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>5669.54</v>
@@ -1670,7 +1676,7 @@
         <v>65.47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1">
         <v>10975934.06</v>
@@ -1681,13 +1687,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>5669.54</v>
@@ -1696,7 +1702,7 @@
         <v>65.47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2">
         <v>10975934.06</v>
@@ -1707,13 +1713,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2">
         <v>44345.898</v>
@@ -1722,7 +1728,7 @@
         <v>4.51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2">
         <v>5914000</v>
@@ -1743,10 +1749,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1757,10 +1763,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -1771,10 +1777,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -1785,10 +1791,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -1809,22 +1815,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1">
         <v>11050719</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1832,22 +1838,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>11050719</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1855,22 +1861,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>7197883</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1891,19 +1897,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1">
         <v>900000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1914,19 +1920,19 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1937,19 +1943,19 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1960,19 +1966,19 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1983,19 +1989,19 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2">
         <v>5000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
+++ b/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -144,82 +144,91 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>立法院郵局（第25支局）</t>
   </si>
   <si>
+    <t>台北長安郵局（第46支局）</t>
+  </si>
+  <si>
+    <t>永豐商業銀行板新分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行西松分行</t>
+  </si>
+  <si>
+    <t>日盛國際商業銀行松山分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行總行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>三信商業銀行台中分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行敦北分行</t>
+  </si>
+  <si>
+    <t>花旗（台灣）銀行營業部</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行營業部</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行松江分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行南京東路分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>其他存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>新毫幣</t>
+  </si>
+  <si>
     <t>潘维剛</t>
   </si>
   <si>
-    <t>台北長安郵局（第46支局）</t>
-  </si>
-  <si>
-    <t>永豐商業銀行板新分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行西松分行</t>
-  </si>
-  <si>
-    <t>日盛國際商業銀行松山分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行總行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>三信商業銀行台中分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行敦北分行</t>
-  </si>
-  <si>
-    <t>花旗（台灣）銀行營業部</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行營業部</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行松江分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>新毫幣</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>力宇創業投資股份有限公司</t>
@@ -1098,13 +1107,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1115,35 +1124,75 @@
         <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>1054022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+        <v>65</v>
+      </c>
+      <c r="F2" s="2">
         <v>1054022</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
+        <v>678</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>46</v>
       </c>
@@ -1151,20 +1200,40 @@
         <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2">
         <v>2251</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
+        <v>678</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>47</v>
       </c>
@@ -1172,20 +1241,40 @@
         <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>494765</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2">
+        <v>678</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>48</v>
       </c>
@@ -1193,20 +1282,40 @@
         <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>1372036</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
+        <v>678</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>49</v>
       </c>
@@ -1214,20 +1323,40 @@
         <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>2374298</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2">
+        <v>678</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -1235,20 +1364,40 @@
         <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>2314717</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2">
+        <v>678</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>51</v>
       </c>
@@ -1256,20 +1405,40 @@
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>679609</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2">
+        <v>678</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>52</v>
       </c>
@@ -1277,20 +1446,40 @@
         <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>5282</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2">
+        <v>678</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>53</v>
       </c>
@@ -1298,20 +1487,40 @@
         <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>1266328</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="2">
+        <v>678</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>54</v>
       </c>
@@ -1319,20 +1528,40 @@
         <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>1147.16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="2">
+        <v>678</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>55</v>
       </c>
@@ -1340,20 +1569,40 @@
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>40706</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2">
+        <v>678</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>56</v>
       </c>
@@ -1361,22 +1610,40 @@
         <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="2">
-        <v>293.41</v>
-      </c>
-      <c r="G13" s="2">
         <v>8676.13</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="2">
+        <v>678</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>57</v>
       </c>
@@ -1384,20 +1651,40 @@
         <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>101048.04</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2">
+        <v>678</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>58</v>
       </c>
@@ -1405,22 +1692,40 @@
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="2">
-        <v>12.41</v>
-      </c>
-      <c r="G15" s="2">
         <v>366.96</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="2">
+        <v>678</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>59</v>
       </c>
@@ -1428,20 +1733,40 @@
         <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>1151980.57</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="2">
+        <v>678</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>60</v>
       </c>
@@ -1449,20 +1774,40 @@
         <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5517</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="2">
+        <v>678</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="2">
         <v>60</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>5517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>61</v>
       </c>
@@ -1470,20 +1815,40 @@
         <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>1178566</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="2">
+        <v>678</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>62</v>
       </c>
@@ -1491,22 +1856,40 @@
         <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="2">
-        <v>244822.95</v>
-      </c>
-      <c r="G19" s="2">
         <v>7239414.63</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="2">
+        <v>678</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>63</v>
       </c>
@@ -1514,20 +1897,40 @@
         <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>1552</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="2">
+        <v>678</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>64</v>
       </c>
@@ -1535,17 +1938,37 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>40706</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="2">
+        <v>678</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="2">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1569,13 +1992,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1607,7 +2030,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1619,13 +2042,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2">
         <v>2519930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1661,13 +2084,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>5669.54</v>
@@ -1676,7 +2099,7 @@
         <v>65.47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1">
         <v>10975934.06</v>
@@ -1687,13 +2110,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>5669.54</v>
@@ -1702,7 +2125,7 @@
         <v>65.47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2">
         <v>10975934.06</v>
@@ -1713,13 +2136,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
         <v>44345.898</v>
@@ -1728,7 +2151,7 @@
         <v>4.51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2">
         <v>5914000</v>
@@ -1749,10 +2172,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1763,10 +2186,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -1777,10 +2200,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -1791,10 +2214,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -1815,22 +2238,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>11050719</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1838,22 +2261,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>11050719</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1861,22 +2284,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
         <v>7197883</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1897,19 +2320,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1">
         <v>900000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1920,19 +2343,19 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1943,19 +2366,19 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1966,19 +2389,19 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1989,19 +2412,19 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2">
         <v>5000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
+++ b/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -237,13 +237,19 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>貝萊德世界礦業</t>
   </si>
   <si>
+    <t>聯博全球高收益債券AT股</t>
+  </si>
+  <si>
     <t>永豐商業銀行</t>
   </si>
   <si>
-    <t>聯博全球高收益債券AT股</t>
+    <t>fund</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -2076,47 +2082,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5669.54</v>
-      </c>
-      <c r="F1" s="1">
-        <v>65.47</v>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1">
-        <v>10975934.06</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>5669.54</v>
@@ -2130,8 +2157,29 @@
       <c r="H2" s="2">
         <v>10975934.06</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>678</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>82</v>
       </c>
@@ -2142,7 +2190,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2">
         <v>44345.898</v>
@@ -2155,6 +2203,27 @@
       </c>
       <c r="H3" s="2">
         <v>5914000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>678</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2172,10 +2241,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -2186,10 +2255,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -2200,10 +2269,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -2214,10 +2283,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -2238,22 +2307,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1">
         <v>11050719</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2261,22 +2330,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>11050719</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2284,22 +2353,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>7197883</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2320,19 +2389,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1">
         <v>900000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2343,19 +2412,19 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2366,19 +2435,19 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2389,19 +2458,19 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2412,19 +2481,19 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2">
         <v>5000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
+++ b/legislator/property/output/normal/潘維剛_2012-03-26_財產申報表_tmp71a01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -252,73 +252,94 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
     <t>吉祥變額萬能終身壽險(A型）</t>
   </si>
   <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
     <t>限期繳費單利增值終身壽險已型</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>一般借款</t>
   </si>
   <si>
     <t>永豐銀行西松分行臺北市松山區東興路</t>
   </si>
   <si>
+    <t>永豐銀行板新分行新北市板橋區民權路</t>
+  </si>
+  <si>
     <t>95年10月27日</t>
   </si>
   <si>
+    <t>96年07月25F1</t>
+  </si>
+  <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>永豐銀行板新分行新北市板橋區民權路</t>
-  </si>
-  <si>
-    <t>96年07月25F1</t>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>女人網股份有限公司</t>
   </si>
   <si>
+    <t>傳智國際文化事業股份有限公司</t>
+  </si>
+  <si>
+    <t>春田國際有限公司</t>
+  </si>
+  <si>
+    <t>中餘國際股份有限公司</t>
+  </si>
+  <si>
     <t>臺北市杭州南路1段63號5樓之1</t>
   </si>
   <si>
+    <t>臺北市羅斯福路2段116號3樓</t>
+  </si>
+  <si>
+    <t>臺北市民權東路3段106巷36號7樓</t>
+  </si>
+  <si>
+    <t>新北市寶僑路235巷6弄5號5樓</t>
+  </si>
+  <si>
     <t>98年08月10日</t>
   </si>
   <si>
+    <t>89年08月11曰</t>
+  </si>
+  <si>
+    <t>92年03月20日</t>
+  </si>
+  <si>
+    <t>92年03月20H</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>傳智國際文化事業股份有限公司</t>
-  </si>
-  <si>
-    <t>春田國際有限公司</t>
-  </si>
-  <si>
-    <t>中餘國際股份有限公司</t>
-  </si>
-  <si>
-    <t>臺北市羅斯福路2段116號3樓</t>
-  </si>
-  <si>
-    <t>臺北市民權東路3段106巷36號7樓</t>
-  </si>
-  <si>
-    <t>新北市寶僑路235巷6弄5號5樓</t>
-  </si>
-  <si>
-    <t>89年08月11曰</t>
-  </si>
-  <si>
-    <t>92年03月20日</t>
-  </si>
-  <si>
-    <t>92年03月20H</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2233,52 +2254,115 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2">
+        <v>678</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2">
+        <v>678</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>97</v>
       </c>
@@ -2286,10 +2370,31 @@
         <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2">
+        <v>678</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2299,76 +2404,139 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1">
-        <v>11050719</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>11050719</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>678</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>7197883</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2">
+        <v>678</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2378,33 +2546,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1">
-        <v>900000</v>
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>113</v>
       </c>
@@ -2412,22 +2601,43 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>678</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>115</v>
       </c>
@@ -2435,22 +2645,43 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2">
+        <v>678</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>116</v>
       </c>
@@ -2458,22 +2689,43 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2">
+        <v>678</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>117</v>
       </c>
@@ -2481,19 +2733,40 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2">
         <v>5000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2">
+        <v>678</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
